--- a/导入模板.xlsx
+++ b/导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linyu\Desktop\Code\Extra_Project\1st-Practice\FormalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BB993E-0C30-4A32-A649-7D36FC3BCF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5ED6B-1ABF-4794-8D7C-13199A4EB919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生产部门</t>
   </si>
   <si>
@@ -62,6 +58,10 @@
   </si>
   <si>
     <t>男</t>
+  </si>
+  <si>
+    <t>Rita</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,22 +423,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/导入模板.xlsx
+++ b/导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linyu\Desktop\Code\Extra_Project\1st-Practice\FormalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5ED6B-1ABF-4794-8D7C-13199A4EB919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1BAD74-302E-407F-B1AB-512261981B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -444,15 +444,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E41" xr:uid="{2A411297-3030-48D4-B9B1-AFC5406D41BE}">
-      <formula1>"采购部门, 生产部门,维修部门,销售部门,质量部门,"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51" xr:uid="{E6A31F13-849F-4D4A-8BA5-1CC03CDC442C}">
       <formula1>"总监, 经理, 工程师, 员工,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{8A45573F-0702-45CD-A4CA-4446347E00DF}">
       <formula1>"男,女,"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E47" xr:uid="{3A9051DD-ED65-4FA9-A7E0-61F301FCECEF}">
+      <formula1>"采购部门, 生产部门,维修部门,销售部门,质检部门,"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
